--- a/Physiologie/Excel/Secret.xlsx
+++ b/Physiologie/Excel/Secret.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Physiologie\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E93A934-40E7-4E07-ACA0-7108420609A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24019437-036C-42F9-ADD2-BE3DB6DDE411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="157">
   <si>
     <t>Numero</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>Le rétrocontrôle négatif est le principal système homéostatique de l'organisme</t>
   </si>
   <si>
@@ -66,6 +63,450 @@
   </si>
   <si>
     <t>Il est physiologique mais pas homéostatique</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>La stimulation de la sécrétion de glucagon lors du jeûne est un exemple de rétrocontrôle positif qui permet de maintenir la glycémie à sa valeur de consigne, entre 80 et 100 mg/dl</t>
+  </si>
+  <si>
+    <t>C'est une forme de rétrocontrôle négatif</t>
+  </si>
+  <si>
+    <t>L'oxygène est l'élément le plus abondant de l'organisme</t>
+  </si>
+  <si>
+    <t>O &gt; C &gt; H &gt; N</t>
+  </si>
+  <si>
+    <t>La forte solubilité dans l'eau des gaz non polaires et physiologiquement très importants comme l'O2 et le CO2 est un avantage lors d'un exercice physique</t>
+  </si>
+  <si>
+    <t>c'est une faible solubilité car non polaire</t>
+  </si>
+  <si>
+    <t>La mobilité des ions sous l'influence d'un champ électrique est inversement proportionnelle à leur taille, càd à leur rayon d'hydratation</t>
+  </si>
+  <si>
+    <t>Plus les ions sont gros, et plus ils ont une faible mobilité</t>
+  </si>
+  <si>
+    <t>Les 3 catégories principales de lipides membranaires de la cellule eucaryote animale sont les phospholipides, les triglycérides et le cholestérol</t>
+  </si>
+  <si>
+    <t>Il n'y a pas de triglycérides dans les membranes cellulaires, ce sont des glycolipides de type sphingolipide</t>
+  </si>
+  <si>
+    <t>Les acides gras saturé et à chaînes longues qui composent les phospholipides membranaires ont une plus haute température de transition qui favorise l'état de gel de la membrane</t>
+  </si>
+  <si>
+    <t>En gros l'idée pour retenir c'est que quand ils sont saturés ou à chaines longues, les molécules ont pas beaucoup de place pour bouger donc ils sont plus "durs" et genre faut beaucoup d'énergie pour les agiter et les rendre liquide</t>
+  </si>
+  <si>
+    <t>Les protéines membranaires liées aux lipides de type GPI sont toujours extracellulaires</t>
+  </si>
+  <si>
+    <t>Lorsque le solvant est l'eau et la solution non diluée, l'osmolarité est supérieure à l'osmolalité</t>
+  </si>
+  <si>
+    <t>Quand le solvant est l'eau, 1kg = 1L, du coup, vu que l'osmolalité c'est le nombre de mole de soluté sur la masse du solvant, vu que le solvant ne prend pas tout le poids de la solution, l'équivalent en poids du solvant sera toujours inférieur au volume totale de la solution (pour l'eau). DONC on a poids de solvant &lt; volume de solution, donc en inversant et en multipliant par le nombre de soluté, on a n(soluté)/m(solvant) &gt; n(soluté)/V(solution) et donc osmolalité toujours supérieur a l'osmolarité. Ce n'est pas forcément vrai si le solvant n'est pas de l'eau ou que la solution n'est pas diluée car à ce moment, on ne peut plus affirmer que m(solvant) &lt; V(solution)</t>
+  </si>
+  <si>
+    <t>Une cellule, dont l'osmolalité intracellulaire est de 300mosm/kg, qui est placée dans un milieu contenant 300mM d'un soluté qui ne se dissocie pas et dans le coefficient de réflexion est de 0,5 , diminue de volume</t>
+  </si>
+  <si>
+    <t>L'osmolalité plasmatique est inversement proportionnelle à l'abaissement du point de congélation du plasma</t>
+  </si>
+  <si>
+    <t>C'est proportionnelle, deltaT = K.osmolalité</t>
+  </si>
+  <si>
+    <t>L'effet solvant est l'entrainement du soluté à travers une membrane, par diffusion</t>
+  </si>
+  <si>
+    <t>C'est par convection. La différence entre diffusion et convection c'est que la diffusion c'est le mouvement dans quasi toutes les directions où c'est moins concentré, alors que la convection c'est le mouvement du fluide dans une direction donnée</t>
+  </si>
+  <si>
+    <t>A 27°C, la pression osmotique exercée par une solution idéale de saccharose 125mM est de 3 atm lorsque la constante des gaz parfaits est égale à 0,08 L.atm/K/mole</t>
+  </si>
+  <si>
+    <t>Une membrane hémi-perméable est une membrane idéale, perméable au solvant mais totalement imperméable à tous les solutés</t>
+  </si>
+  <si>
+    <t>A ne pas confondre avec semi perméable !</t>
+  </si>
+  <si>
+    <t>Les solutions de NaCl 75mM et de Na2SO4 50mM ont une osmolalité identique mais une concentration équivalent différente, respectivement égale à 150mEq/l et 200mEq/l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NaCl = Na+ Cl-, donc 75mM NaCl = 75* 1 (charge Na) + 75 *1 (charge Cl) = 150mEq/l. Na2SO4 = 2Na+ SO4(2-) donc 50mM Na2SO4 = 50*2(nombre Na)*1(charge Na) + 50*1*2(charge SO4) = 200mEq/l </t>
+  </si>
+  <si>
+    <t>Le trou anionique du plasma est augmenté lorsque la concentration des anions non mesurés est augmentée</t>
+  </si>
+  <si>
+    <t>Dans chaque compartiment liquidien, alors que la composition ionique est différente, la somme des charges positives est égale à la somme des charges négatives</t>
+  </si>
+  <si>
+    <t>C'est le principe d'électroneutralité</t>
+  </si>
+  <si>
+    <t>Dans la formule : P_osm = (2*P_Na) + (P_glucose / 18) + (P_uree/6) qui permet d'estimer l'osmolalité plasmatique, le glucose et l'urée sont exprimée en mg/dl</t>
+  </si>
+  <si>
+    <t>C'est une fourberie de Scapin que toutes les variables ne sont pas sur la même unité, faites gaffe !</t>
+  </si>
+  <si>
+    <t>Une pseudo-hyponatrémie signifie que la natrémie par litre de plasma est normal mais que la natrémie par litre d'eau plasmatique est basse</t>
+  </si>
+  <si>
+    <t>C'est l'inverse</t>
+  </si>
+  <si>
+    <t>Le liquide transcellulaire est un petit compartiment du LIC correspondant aux espaces liquidiens clos entourés d'un épithélium</t>
+  </si>
+  <si>
+    <t>C'est un petit espace du LEC</t>
+  </si>
+  <si>
+    <t>Le sérum est obtenu à partir de sang coagulé</t>
+  </si>
+  <si>
+    <t>Sérum = c du rhum quand t'en verse sur une blessure ça aide à désinfecter et cicatriser =&gt; coagulé</t>
+  </si>
+  <si>
+    <t>Le pourcentage d'eau corporelle totale (ECT) par rapport au poids du corps varie avec l'âge et le sexe, étant plus élevé chez le nouveau-né des 2 sexes où l'ECT représente 75% du poids corporel</t>
+  </si>
+  <si>
+    <t>Le volume du LEC peut être déterminé par l'injection intraveineuse de mannitol, en utilisant la formule : V_LEC = (qtité mannitol injectée) / [mannitol]_équilibre</t>
+  </si>
+  <si>
+    <t>C'est  V_LEC = (qtité mannitol injectée- qtité mannitol éliminée) / [mannitol]_équilibre</t>
+  </si>
+  <si>
+    <t>Le Ca2+ libre représente la majeure partie du pool total de calcium de l'organisme</t>
+  </si>
+  <si>
+    <t>Ca représente 1% du pool,  le reste étant non echangeable sous forme de Ca2+ osseux</t>
+  </si>
+  <si>
+    <t>L'organisme régule directement le volume du LIC</t>
+  </si>
+  <si>
+    <t>Il régule indirectement via le contrôle de la balance du Na pour influer sur le volume du LEC qui va influer sur le volume du LIC</t>
+  </si>
+  <si>
+    <t>La perfusion de 1 L de G5% en ED chez un patient non diabétique augmente plus le volume du LEC que la perfusion de 1L de NaCl hypotonique</t>
+  </si>
+  <si>
+    <t>/!\ L'injection de 1L de solution de glucose en ED s'apparente à l'injection de 1L d'eau distillé uniquement parceque le glucose finit métabolisé dans les cellules et disparait. Cela n'est possible uniquement parceque le patient n'est pas diabétique. Si le patient était diabétique, il aurait du mal à métaboliser le glucose et il faudrait alors prendre en compte les mosm ajouté par le glucose (avec la formule où il faut diviser par 180 (voir question 19))</t>
+  </si>
+  <si>
+    <t>L'organisme régule le volume circulant effectif pour maintenir stable l'hydratation du LEC</t>
+  </si>
+  <si>
+    <t>Un étudiant en bonne santé qui boit régulièrement du café durant la période de blocus risque de développer une hyponatrémie sévère</t>
+  </si>
+  <si>
+    <t>Il est en bonne santé, donc un apport élévé en eau va activer ses boucles de régulation qui va juste chercher à éliminer le surplus via l'urine</t>
+  </si>
+  <si>
+    <t>Lors de la perfusion de 1L de NaCl 9g/L, 0,25L se répartissent dans le compartiment intravasculaire et 0,75L dans le compartiment interstitiel</t>
+  </si>
+  <si>
+    <t>L'énergie d'activation élevé des réactions chimiques permet de maintenir la cellule normal dans un état stationnaire compartible avec son fonctionnement normal.</t>
+  </si>
+  <si>
+    <t>sinon si l'énergie était faible, tout s'activerait super facilement et ça ferait boum dans le corps</t>
+  </si>
+  <si>
+    <t>La synthèse d'ATP utilise l'énergie fournie principalement par l'oxydation des glucides et des protéines</t>
+  </si>
+  <si>
+    <t>C'est l'oxydation des glucides et des LIPIDES</t>
+  </si>
+  <si>
+    <t>Le CN bloque la chaîne respiratoire en inhibant la consommation d'O2 mais sans affecter la synthèse d'ATP</t>
+  </si>
+  <si>
+    <t>Ca affecte aussi la synthèse d'ATP. Ce sont les agents découplant (et pas décuplant) qui affecte l'un sans affecter l'autre comme le DNP (dinitrophénol) qui inhibe la synthèse d'ATP mais pas la consommation d'O2.</t>
+  </si>
+  <si>
+    <t>Les pompes rédox réalisent un transport actif secondaire de protons</t>
+  </si>
+  <si>
+    <t>C'est un transport actif primaire</t>
+  </si>
+  <si>
+    <t>Lorsque le couple B (oxB/redB) a un pouvoir réducteur plus fort que le couple A (oxA/redA), cela signifie que E'°_oxA/redA &gt; E'°_oxB/redB</t>
+  </si>
+  <si>
+    <t>Les réserves d'ATP de l'organisme sont très importantes mais doivent être renouvelées rapidement</t>
+  </si>
+  <si>
+    <t>Les réserves sont limités donc pas si importantes que ça</t>
+  </si>
+  <si>
+    <t>L'état stationnaire est un état de non équilibre</t>
+  </si>
+  <si>
+    <t>La biosphère peut être considérée comme un système ouvert dont l'entropie augment, conformément au 2eme principe de la thermodynamique</t>
+  </si>
+  <si>
+    <t>L'entropie de l'Univers augmente, mais celui de la biosphère diminue</t>
+  </si>
+  <si>
+    <t>La relation Delta_G = 2,3 R.T.Delta_pH + z.F.Delta_Psi permet de calculer la force protomotrice, exprimée en mV/mole</t>
+  </si>
+  <si>
+    <t>C'est en J/mole</t>
+  </si>
+  <si>
+    <t>L'énergie libérée par l'oxydation complète d'1 g de lipide dans une bombe calorimétrique est de +ou- 65% supérieure à celle libérée par 1g de protéine</t>
+  </si>
+  <si>
+    <t>Dans un steak de bœuf de 150g contenant 40g de protéines et 22g de lipides, 55% des calories proviennes des lipides</t>
+  </si>
+  <si>
+    <t>40*4+22*9 = 358kcal, or 22*9/358*100 = 55%</t>
+  </si>
+  <si>
+    <t>Le calcul du QR est basé sur le fait que les échanges pulmonaires en O2 et CO2 reflètent bien les échanges gazeux produits par le métabolisme cellulaire des nutriments</t>
+  </si>
+  <si>
+    <t>Lorsque la perméabilté membranaire pour un soluté neutre i est élevée, tau (la variable de temps) est plus élevée et il faut donc moins de temps  pour que le gradient de concentration atteigne 37% de sa valeur initiale</t>
+  </si>
+  <si>
+    <t>tau est plus court</t>
+  </si>
+  <si>
+    <t>Le Kp d'un soluté lipophile est supérieur à 1</t>
+  </si>
+  <si>
+    <t>La distance à parcourir depuis un capillaire vers une cellule étant de 5 à 10 µm, le temps de diffusion d'un soluté neutre est de l'ordre de + ou - 10 msec</t>
+  </si>
+  <si>
+    <t>Lorsque Vm = -80mV et E_Na = + 60mV, la driving force est négative et le Na+ sort de la cellule</t>
+  </si>
+  <si>
+    <t>DF = -80 - 60 = -140mV &lt; 0 donc le Na rentre dans la cellule</t>
+  </si>
+  <si>
+    <t>Lorsque le gradient de potentiel électrochimique d'un ion i est différent de 0, Vm donne la valeur du potentiel d'équilibre électrochimique de l'ion i</t>
+  </si>
+  <si>
+    <t>Il faut que le gradient soit nul pour que Vm = Ei</t>
+  </si>
+  <si>
+    <t>Lors d'un potentiel de Nernst, les gradients ioniques se dissipent très progressivement</t>
+  </si>
+  <si>
+    <t>Ils restent indefiniment préservés</t>
+  </si>
+  <si>
+    <t>Un courant positif repolarisant est un courant sortant de charges positives ou un courant entrant de charges négatives</t>
+  </si>
+  <si>
+    <t>La driving force indique le sens et la vitesse du mouvement mais ne renseigne pas sur le mécanisme de déplacement</t>
+  </si>
+  <si>
+    <t>Indique que le sens, pas la vitesse</t>
+  </si>
+  <si>
+    <t>Le courant macroscopique (I_i) s'exprime selon la relation : I_i = i_i . N_i . P_o</t>
+  </si>
+  <si>
+    <t>Le filtre de sélectivité est situé à l'intérieur d'un canal et permet le passage aisé de l'ion déshydraté</t>
+  </si>
+  <si>
+    <t>Les ionophores sont uniquement des transporteurs mobiles comme la valinomycine</t>
+  </si>
+  <si>
+    <t>Ce sont aussi des canaux ioniques</t>
+  </si>
+  <si>
+    <t>L'activation du canal GIRK des cellules sinusales induit un effet chronotrope positif</t>
+  </si>
+  <si>
+    <t>Il induit un effet chronotrope négatif (ralentit le battement du cœur)</t>
+  </si>
+  <si>
+    <t>Le GLUT2 de la membrane apicale de l'entérocyte permet de faire entrer le glucose dans le cytoplasme</t>
+  </si>
+  <si>
+    <t>Le GLUT2 est sur la membrane basolatérale</t>
+  </si>
+  <si>
+    <t>Les isoformes d'un uniport ont des affinités différentes pour un même substrat</t>
+  </si>
+  <si>
+    <t>GLUT1 et GLUT2 ont les même substrat mais pas le même Km</t>
+  </si>
+  <si>
+    <t>Le GLUT1 est un uniport asymétrique, le Km de l'entrée du glucose dans la cellule étant supérieur au Km de la sortie du glucose</t>
+  </si>
+  <si>
+    <t>C'est l'inverse, le Km entrée est plus bas que celui de sortie donc les molécules de glucoses ont plus tendance à rentrer. En effet le Km reflète la concentration minimum pour atteindre la moitié de la vitesse maximal enzymatique, donc plus elle est petite, moins il y a besoin de substrat pour que la protéine agisse, donc vu que Km entree = 2mM &lt;&lt; Kmsortie = 25mM, elle aura plus tendance à entree car besoin de moins de substrat</t>
+  </si>
+  <si>
+    <t>Le domaine P de la sous-unité alpha de la P-ATPase est phosphorylé réversiblement au niveau d'un résidu aspartate lors du cycle de transport</t>
+  </si>
+  <si>
+    <t>Dans le modèle pompe-fuite, le transport passif est assimilé à une fuite qui tend à dissiper naturellement les gradients et à amener la cellule vers un état d'équilibre</t>
+  </si>
+  <si>
+    <t>C'est [Na+]int qui est le principal déterminant</t>
+  </si>
+  <si>
+    <t>Dans les conditions physiologiques, [K+]ext est le principal déterminant de la fonction de la Na+,K+-ATPase</t>
+  </si>
+  <si>
+    <t>Les glycosides cardiaques se fixent sur un site extracellulaire et voisin du site accepteur du K+, dans la configuration E2.P de la Na+,K+-ATPase qui a une faible affinité pour le K+</t>
+  </si>
+  <si>
+    <t>Il a une forte affinité pour le K+</t>
+  </si>
+  <si>
+    <t>Les inhibiteurs de la pompe à protons se fixent de façon covalent et irréversible au niveau extracellulaire dans la configuration E2.P de la H+,K+-ATPase</t>
+  </si>
+  <si>
+    <t>Le complexe calmoduline-Ca2+ inhibe l'activité de la PMCA</t>
+  </si>
+  <si>
+    <t>Il favorise l'activité du PMCA</t>
+  </si>
+  <si>
+    <t>La K+,H+-ATPase a une localisation apical ou basolatérale selon les cellules</t>
+  </si>
+  <si>
+    <t>Uniquement apicale dans les cellules épithéliales</t>
+  </si>
+  <si>
+    <t>Les H+-ATPases de type V sont uniquement présentes au niveau des lysosomes</t>
+  </si>
+  <si>
+    <t>présent dans les endosomes, vésicules de sécrétion de membrane plasmique aussi</t>
+  </si>
+  <si>
+    <t>Le turnover de la Na+,K+-ATPase est de + ou - 150cycles/sec</t>
+  </si>
+  <si>
+    <t>Les ABC transporteurs jouent un rôle important dans le métabolisme des lipides et du glucose</t>
+  </si>
+  <si>
+    <t>et aussi des acides biliaires</t>
+  </si>
+  <si>
+    <t>Le complexe TAP est un ABC transporteur présent au niveau du RE qui intervient lors du processus d'association de petits peptides -provenant de la dégradation de protéines intracellulaires- au CMH de classe I</t>
+  </si>
+  <si>
+    <t>Certains ABC transporteurs atypiques qui sont surexprimés au niveau de la membrane plasmique de cellules tumorales leur confèrent une multirésistances aux drogues anti-cancéreuses</t>
+  </si>
+  <si>
+    <t>Ils y a des ABC transporteurs normaux qui peuvent conférer une multirésistances aux drogues anti-cancéreuse</t>
+  </si>
+  <si>
+    <t>Les cotransporteurs NKKC1 et NKCC2 sont situés dans la membrane basolatérale des cellules épithéliales</t>
+  </si>
+  <si>
+    <t>Que NKCC1 qui est au niveau basolatérale, NKCC2 est au niveau apicale</t>
+  </si>
+  <si>
+    <t>L'échangeur NHE1 est inhibé par l'amiloride, à des concentrations de l'ordre du mM</t>
+  </si>
+  <si>
+    <t>Selon les conditions, le transport réalisé par un uniport ou un cotransporteur peut être réversible</t>
+  </si>
+  <si>
+    <t>Un symport assurant le transport couplé de Na+ et du soluté B non chargé avec un stoechiométrie 2Na:1B permet de concentrer théoriquement 2 fois plus de substrat B par rapport à la stoechiométrie 1Na:1B</t>
+  </si>
+  <si>
+    <t>c'est 100fois plus</t>
+  </si>
+  <si>
+    <t>L'échangeur NHE1 est activé lorsque le pH intracellulaire devient inférieur à 7,2</t>
+  </si>
+  <si>
+    <t>Lors d'un potentiel d'action au niveau des cardiomyocyte, le sens du transport par NCX1 varie, étant dépendant des valeurs de Vm et E_Na/Ca</t>
+  </si>
+  <si>
+    <t>Le modèle  du passage des molécules d'eau, en file indienne, à travers un pore étroit, s'applique au passage des molécules d'eau via les aquaporines</t>
+  </si>
+  <si>
+    <t>Un rapport Posm/Pd = 1 est en faveur de l'absence de pores aqueux membranaires</t>
+  </si>
+  <si>
+    <t>Au niveau de la cellule du tubule collecteur, l'ADH induit l'augmentation la perméabilité apicale à l'eau en  se liant à un récepteur V2 basolatéral</t>
+  </si>
+  <si>
+    <t>Certaines cellules vivantes ne développent pas de différence de potentiel transmembranaire</t>
+  </si>
+  <si>
+    <t>C'est la caractéristique de toute cellule vivante</t>
+  </si>
+  <si>
+    <t>L'inhibition de la Na+,K+-ATPase par l'ouabaïne réduit lentement Vm de + ou - 5mV</t>
+  </si>
+  <si>
+    <t>L'effet est rapide</t>
+  </si>
+  <si>
+    <t>Lors d'une distribution de Gibbs-Donnan où le Na+ et le Cl- sont les ions perméants, leur asymétrie de distribution est déterminée par la formule : [Na]ext*[Cl]ext = [Na]int*[Cl]int</t>
+  </si>
+  <si>
+    <t>Les épithélia tight maintiennent un gradient transépithélial mais ne transportent pas de grandes quantités de solutés et d'eau</t>
+  </si>
+  <si>
+    <t>La résistance d'un épithélium dépend de la résistance de la tight junction qui est principalement liée aux caractéristiques des claudines qui la composent</t>
+  </si>
+  <si>
+    <t>Une liaison intercellulaire homophilique est assurée par  2 molécules d'adhésion identiques</t>
+  </si>
+  <si>
+    <t>Lorsque qu'une solution de pH 6 contient un acide faible dont le pKa = 4, 99% de l'acide est non dissocié et 1% est dissocié</t>
+  </si>
+  <si>
+    <t>L'acidité titrable représente ~2/3 de l'excrétion rénale acide quotidienne</t>
+  </si>
+  <si>
+    <t>ça ne représente que 30/70</t>
+  </si>
+  <si>
+    <t>Le pouvoir tampon (Beta) s'exprime en mM par unité de pH</t>
+  </si>
+  <si>
+    <t>L'hémoglobine représente 80% des tampons non bicarbonate du LEC</t>
+  </si>
+  <si>
+    <t>Si le pH artériel = 7,3, et sachant que le pK du couple CO2/HCO3- = 6,1, cela implique que log([CO2 dissout]artériel / [HCO3-]artériel) = 1,2</t>
+  </si>
+  <si>
+    <t>c'est le log de l'inverse qui doit valoir 1,2</t>
+  </si>
+  <si>
+    <t>Le pool de H+ de l'organisme est de + ou - 2500 nanomoles et majoritairement intracellulaire</t>
+  </si>
+  <si>
+    <t>La sécrétion tubulaire de H+ correspond à la réabsorption ou à la régénération de HCO3-</t>
+  </si>
+  <si>
+    <t>Les principaux tampons urinaires permettent d'éliminer quotidiennement 70mEq de H+</t>
+  </si>
+  <si>
+    <t>L'homéostasie du pHi est assurée à très court terme par la mise en jeu des mécanismes d'acidification et d'alcanisation qui dépendent de l'activité des différents cotransporteurs et ATPases.</t>
+  </si>
+  <si>
+    <t>à long terme</t>
+  </si>
+  <si>
+    <t>Chaque jour, le rein régénère 4500 mEq de HCO3- filtré</t>
+  </si>
+  <si>
+    <t>réabsorbé, pas régénéré</t>
+  </si>
+  <si>
+    <t>Lors d'une acidose respiratoire, la compensation de l'organisme vise à augmenter [HCO3-]artériel pour garder le rapport PaCO2/[HCO3-]artériel constant et maintenir le pH artériel</t>
   </si>
 </sst>
 </file>
@@ -439,15 +880,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4434D7D-6CBE-4AEC-87F6-B0BB4C058CB9}">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="118" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D151"/>
+    <sheetView tabSelected="1" topLeftCell="C69" zoomScale="118" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="39.140625" customWidth="1"/>
     <col min="3" max="3" width="73.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -475,19 +916,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -495,19 +936,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -515,19 +956,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -535,19 +976,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -555,19 +996,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -575,19 +1016,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -595,19 +1036,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -615,19 +1056,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -635,19 +1076,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -655,19 +1096,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -675,19 +1116,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
+        <v>25</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -695,19 +1136,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -715,19 +1156,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
+        <v>28</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -735,19 +1176,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
+        <v>30</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -755,19 +1196,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
+        <v>31</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -775,19 +1216,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
+        <v>33</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -795,19 +1236,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
+        <v>35</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -815,19 +1256,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
+        <v>36</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -835,19 +1276,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
+        <v>38</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -855,19 +1296,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
+        <v>40</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -875,19 +1316,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
+        <v>42</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -895,19 +1336,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
+        <v>44</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -915,19 +1356,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
+        <v>46</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -935,19 +1376,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>6</v>
+        <v>47</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -955,19 +1396,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
+        <v>49</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -975,19 +1416,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
+        <v>51</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -995,19 +1436,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
+        <v>53</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1015,19 +1456,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" t="s">
-        <v>6</v>
+        <v>55</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1035,19 +1476,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>6</v>
+        <v>56</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1055,19 +1496,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
-        <v>6</v>
+        <v>58</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1075,19 +1516,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>6</v>
+        <v>59</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="F32" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1095,19 +1536,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>6</v>
+        <v>61</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1115,19 +1556,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" t="s">
-        <v>6</v>
+        <v>63</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="F34" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1135,19 +1576,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s">
-        <v>6</v>
+        <v>65</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="F35" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1155,19 +1596,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" t="s">
-        <v>6</v>
+        <v>67</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1175,19 +1616,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" t="s">
-        <v>6</v>
+        <v>68</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F37" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1195,19 +1636,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" t="s">
-        <v>6</v>
+        <v>70</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1215,19 +1656,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" t="s">
-        <v>6</v>
+        <v>71</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F39" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1235,19 +1676,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
+        <v>73</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="F40" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1255,19 +1696,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" t="s">
-        <v>6</v>
+        <v>75</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1275,19 +1716,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" t="s">
-        <v>6</v>
+        <v>76</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1295,19 +1736,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" t="s">
-        <v>6</v>
+        <v>78</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1315,19 +1756,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" t="s">
-        <v>6</v>
+        <v>79</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="F44" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1335,19 +1776,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" t="s">
-        <v>6</v>
+        <v>81</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1355,19 +1796,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" t="s">
-        <v>6</v>
+        <v>82</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1375,19 +1816,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" t="s">
-        <v>6</v>
+        <v>83</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="F47" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1395,19 +1836,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" t="s">
-        <v>6</v>
+        <v>85</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="F48" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1415,19 +1856,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" t="s">
-        <v>6</v>
+        <v>87</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="F49" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1435,19 +1876,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" t="s">
-        <v>6</v>
+        <v>89</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1455,19 +1896,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" t="s">
-        <v>6</v>
+        <v>90</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="F51" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1475,19 +1916,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" t="s">
-        <v>6</v>
+        <v>92</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1495,19 +1936,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" t="s">
-        <v>6</v>
+        <v>93</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1515,19 +1956,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" t="s">
-        <v>6</v>
+        <v>94</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="F54" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1535,19 +1976,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" t="s">
-        <v>6</v>
+        <v>96</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="F55" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1555,19 +1996,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" t="s">
-        <v>6</v>
+        <v>98</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="F56" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1575,19 +2016,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" t="s">
-        <v>6</v>
+        <v>100</v>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="F57" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1595,19 +2036,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" t="s">
-        <v>6</v>
+        <v>102</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="F58" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1615,19 +2056,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" t="s">
-        <v>6</v>
+        <v>104</v>
+      </c>
+      <c r="D59" t="b">
+        <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1635,19 +2076,19 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" t="s">
-        <v>6</v>
+        <v>105</v>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1655,19 +2096,19 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" t="s">
-        <v>6</v>
+        <v>107</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="F61" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1675,19 +2116,19 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" t="s">
-        <v>6</v>
+        <v>108</v>
+      </c>
+      <c r="D62" t="b">
+        <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="F62" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1695,19 +2136,19 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" t="s">
-        <v>6</v>
+        <v>110</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1715,19 +2156,19 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" t="s">
-        <v>6</v>
+        <v>111</v>
+      </c>
+      <c r="D64" t="b">
+        <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="F64" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1735,19 +2176,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" t="s">
-        <v>6</v>
+        <v>113</v>
+      </c>
+      <c r="D65" t="b">
+        <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="F65" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1755,19 +2196,19 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" t="s">
-        <v>6</v>
+        <v>115</v>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="F66" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1775,19 +2216,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" t="s">
-        <v>6</v>
+        <v>117</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -1795,19 +2236,19 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" t="s">
-        <v>6</v>
+        <v>118</v>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="F68" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -1815,19 +2256,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" t="s">
-        <v>6</v>
+        <v>120</v>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -1835,19 +2276,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" t="s">
-        <v>6</v>
+        <v>121</v>
+      </c>
+      <c r="D70" t="b">
+        <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="F70" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -1855,19 +2296,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" t="s">
-        <v>6</v>
+        <v>123</v>
+      </c>
+      <c r="D71" t="b">
+        <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="F71" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -1875,19 +2316,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" t="s">
-        <v>6</v>
+        <v>125</v>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -1895,19 +2336,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" t="s">
-        <v>6</v>
+        <v>126</v>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -1915,19 +2356,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" t="s">
-        <v>6</v>
+        <v>127</v>
+      </c>
+      <c r="D74" t="b">
+        <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="F74" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -1935,19 +2376,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" t="s">
-        <v>6</v>
+        <v>129</v>
+      </c>
+      <c r="D75" t="b">
+        <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F75" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -1955,19 +2396,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" t="s">
-        <v>6</v>
+        <v>130</v>
+      </c>
+      <c r="D76" t="b">
+        <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -1975,19 +2416,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" t="s">
-        <v>6</v>
+        <v>131</v>
+      </c>
+      <c r="D77" t="b">
+        <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -1995,19 +2436,19 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" t="s">
-        <v>6</v>
+        <v>132</v>
+      </c>
+      <c r="D78" t="b">
+        <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F78" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2015,19 +2456,19 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" t="s">
-        <v>6</v>
+        <v>133</v>
+      </c>
+      <c r="D79" t="b">
+        <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2035,19 +2476,19 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80" t="s">
-        <v>6</v>
+        <v>134</v>
+      </c>
+      <c r="D80" t="b">
+        <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="F80" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2055,19 +2496,19 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" t="s">
-        <v>6</v>
+        <v>136</v>
+      </c>
+      <c r="D81" t="b">
+        <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="F81" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2075,19 +2516,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" t="s">
-        <v>6</v>
+        <v>138</v>
+      </c>
+      <c r="D82" t="b">
+        <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F82" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2095,19 +2536,19 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" t="s">
-        <v>6</v>
+        <v>139</v>
+      </c>
+      <c r="D83" t="b">
+        <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2115,19 +2556,19 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" t="s">
-        <v>6</v>
+        <v>140</v>
+      </c>
+      <c r="D84" t="b">
+        <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F84" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2135,19 +2576,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" t="s">
-        <v>6</v>
+        <v>141</v>
+      </c>
+      <c r="D85" t="b">
+        <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F85" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2155,19 +2596,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" t="s">
-        <v>6</v>
+        <v>142</v>
+      </c>
+      <c r="D86" t="b">
+        <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="F86" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2175,19 +2616,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" t="s">
-        <v>6</v>
+        <v>143</v>
+      </c>
+      <c r="D87" t="b">
+        <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="F87" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2195,19 +2636,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" t="s">
-        <v>6</v>
+        <v>145</v>
+      </c>
+      <c r="D88" t="b">
+        <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F88" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2215,19 +2656,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" t="s">
-        <v>6</v>
+        <v>146</v>
+      </c>
+      <c r="D89" t="b">
+        <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F89" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2235,19 +2676,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" t="s">
-        <v>6</v>
+        <v>147</v>
+      </c>
+      <c r="D90" t="b">
+        <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="F90" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2255,19 +2696,19 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" t="s">
-        <v>6</v>
+        <v>149</v>
+      </c>
+      <c r="D91" t="b">
+        <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F91" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2275,19 +2716,19 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" t="s">
-        <v>6</v>
+        <v>150</v>
+      </c>
+      <c r="D92" t="b">
+        <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2295,19 +2736,19 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" t="s">
-        <v>6</v>
+        <v>151</v>
+      </c>
+      <c r="D93" t="b">
+        <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F93" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2315,19 +2756,19 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" t="s">
-        <v>6</v>
+        <v>152</v>
+      </c>
+      <c r="D94" t="b">
+        <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="F94" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2335,19 +2776,19 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" t="s">
-        <v>6</v>
+        <v>154</v>
+      </c>
+      <c r="D95" t="b">
+        <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>6</v>
+        <v>155</v>
       </c>
       <c r="F95" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2355,19 +2796,19 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="D96" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E96" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F96" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2375,19 +2816,19 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E97" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F97" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2395,19 +2836,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E98" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F98" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2415,19 +2856,19 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E99" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F99" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2435,19 +2876,19 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E100" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F100" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2455,19 +2896,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E101" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F101" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -2475,19 +2916,19 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E102" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F102" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -2495,19 +2936,19 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E103" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F103" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -2515,19 +2956,19 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E104" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F104" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -2535,19 +2976,19 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E105" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F105" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -2555,19 +2996,19 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E106" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F106" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -2575,19 +3016,19 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E107" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F107" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -2595,19 +3036,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E108" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F108" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -2615,19 +3056,19 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E109" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F109" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -2635,19 +3076,19 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E110" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F110" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -2655,19 +3096,19 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E111" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F111" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -2675,19 +3116,19 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E112" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F112" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -2695,19 +3136,19 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E113" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F113" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -2715,19 +3156,19 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E114" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F114" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -2735,19 +3176,19 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E115" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F115" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -2755,19 +3196,19 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E116" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F116" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -2775,19 +3216,19 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E117" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F117" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -2795,19 +3236,19 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E118" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F118" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -2815,19 +3256,19 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E119" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F119" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -2835,19 +3276,19 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E120" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F120" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -2855,19 +3296,19 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E121" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F121" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -2875,19 +3316,19 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E122" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F122" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -2895,19 +3336,19 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E123" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F123" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -2915,19 +3356,19 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E124" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F124" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -2935,19 +3376,19 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E125" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F125" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -2955,19 +3396,19 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E126" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F126" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -2975,19 +3416,19 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E127" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F127" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -2995,19 +3436,19 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E128" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F128" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3015,19 +3456,19 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E129" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F129" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3035,19 +3476,19 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E130" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F130" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3055,19 +3496,19 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E131" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F131" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3075,19 +3516,19 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E132" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F132" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3095,19 +3536,19 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E133" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F133" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3115,19 +3556,19 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E134" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F134" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3135,19 +3576,19 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E135" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F135" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3155,19 +3596,19 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E136" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F136" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3175,19 +3616,19 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E137" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F137" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3195,19 +3636,19 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E138" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F138" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3215,19 +3656,19 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E139" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F139" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3235,19 +3676,19 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E140" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F140" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3255,19 +3696,19 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E141" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F141" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3275,19 +3716,19 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E142" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F142" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3295,19 +3736,19 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E143" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F143" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -3315,19 +3756,19 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E144" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F144" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -3335,19 +3776,19 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E145" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F145" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -3355,19 +3796,19 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E146" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F146" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -3375,19 +3816,19 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E147" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F147" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -3395,19 +3836,19 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E148" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F148" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -3415,19 +3856,19 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E149" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F149" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -3435,19 +3876,19 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E150" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F150" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -3455,19 +3896,19 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E151" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F151" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Physiologie/Excel/Secret.xlsx
+++ b/Physiologie/Excel/Secret.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Physiologie\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24019437-036C-42F9-ADD2-BE3DB6DDE411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8E6274-5405-43C7-931A-AD1B42473627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="172">
   <si>
     <t>Numero</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Quand le solvant est l'eau, 1kg = 1L, du coup, vu que l'osmolalité c'est le nombre de mole de soluté sur la masse du solvant, vu que le solvant ne prend pas tout le poids de la solution, l'équivalent en poids du solvant sera toujours inférieur au volume totale de la solution (pour l'eau). DONC on a poids de solvant &lt; volume de solution, donc en inversant et en multipliant par le nombre de soluté, on a n(soluté)/m(solvant) &gt; n(soluté)/V(solution) et donc osmolalité toujours supérieur a l'osmolarité. Ce n'est pas forcément vrai si le solvant n'est pas de l'eau ou que la solution n'est pas diluée car à ce moment, on ne peut plus affirmer que m(solvant) &lt; V(solution)</t>
   </si>
   <si>
-    <t>Une cellule, dont l'osmolalité intracellulaire est de 300mosm/kg, qui est placée dans un milieu contenant 300mM d'un soluté qui ne se dissocie pas et dans le coefficient de réflexion est de 0,5 , diminue de volume</t>
-  </si>
-  <si>
     <t>L'osmolalité plasmatique est inversement proportionnelle à l'abaissement du point de congélation du plasma</t>
   </si>
   <si>
@@ -507,6 +504,54 @@
   </si>
   <si>
     <t>Lors d'une acidose respiratoire, la compensation de l'organisme vise à augmenter [HCO3-]artériel pour garder le rapport PaCO2/[HCO3-]artériel constant et maintenir le pH artériel</t>
+  </si>
+  <si>
+    <t>La quantité du tampon urinaire NH4+/NH3 est ajustable en fonction de la charge acide, le NH3 étant produit au niveau des cellules tubulaires proximales à partir de glutamine</t>
+  </si>
+  <si>
+    <t>Certains muscles squelettiques possèdent une activité pacemaker</t>
+  </si>
+  <si>
+    <t>Que les muscles cardiaques et les muscles lisses</t>
+  </si>
+  <si>
+    <t>Au niveau du muscle squelettique, seule la sommation spatiale permet d'augmenter la force musculaire</t>
+  </si>
+  <si>
+    <t>Il y a aussi la sommation temporelle</t>
+  </si>
+  <si>
+    <t>Lors d'une secousse musculaire squelettique, pour une précharge donnée, la vitesse du développement de la contraction est d'autant plus rapide que la postcharge est faible</t>
+  </si>
+  <si>
+    <t>La phase 3 du potentiel d'action du cardiomyocyte est une phase de repolarisation liée à l'activation retardée de canaux K+ dont le canal HERG</t>
+  </si>
+  <si>
+    <t>Comme au niveau de la cellule sinusale, la phase 0 du potentiel d'action du cardiomyocyte dépend de l'activation transitoire de canaux Na rapides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/!\ Les cellules nodales (dont ceux qui sont dans le nœud sinusale) n'ont pas de canaux Na rapides </t>
+  </si>
+  <si>
+    <t>La loi de Frank-Starling peut notamment s'expliquer par une augmentation de la sensibilité des myofilaments au Ca2+ lorsque la fibre musculaire cardiaque est étirée</t>
+  </si>
+  <si>
+    <t>La morphologie du potentiel d'action des certaines cellules musculaires lisses gastriques est très semblable à celle du potentiel d'action du cardiomyocyte</t>
+  </si>
+  <si>
+    <t>askip c vrai mais jtrouve pas la justif</t>
+  </si>
+  <si>
+    <t>La variation de longueur du muscle lisse entre 0,5 et 2,5 fois sa longueur optimale permet cependant de maintenir sa force de contraction</t>
+  </si>
+  <si>
+    <t>Les muscles lisses des vaisseaux ont généralement une innervation autonome unique et parasympathique</t>
+  </si>
+  <si>
+    <t>unique mais orthosympathique, pas parasympathique</t>
+  </si>
+  <si>
+    <t>Une cellule, dont l'osmolalité intracellulaire efficace est de 300mosm/kg, qui est placée dans un milieu contenant 300mM d'un soluté qui ne se dissocie pas et dans le coefficient de réflexion est de 0,5 , diminue de volume</t>
   </si>
 </sst>
 </file>
@@ -880,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4434D7D-6CBE-4AEC-87F6-B0BB4C058CB9}">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C69" zoomScale="118" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,10 +1164,10 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -1139,13 +1184,13 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
         <v>26</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -1159,13 +1204,13 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
         <v>28</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -1179,7 +1224,7 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1199,13 +1244,13 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
         <v>31</v>
-      </c>
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>32</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -1219,13 +1264,13 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
         <v>33</v>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -1239,7 +1284,7 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -1259,13 +1304,13 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
         <v>36</v>
-      </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>37</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -1279,13 +1324,13 @@
         <v>9</v>
       </c>
       <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
         <v>38</v>
-      </c>
-      <c r="D20" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>39</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -1299,13 +1344,13 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
         <v>40</v>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>41</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1319,13 +1364,13 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
         <v>42</v>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>43</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1339,13 +1384,13 @@
         <v>9</v>
       </c>
       <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
         <v>44</v>
-      </c>
-      <c r="D23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>45</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1359,7 +1404,7 @@
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -1379,13 +1424,13 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
         <v>47</v>
-      </c>
-      <c r="D25" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>48</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1399,13 +1444,13 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
         <v>49</v>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>50</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1419,13 +1464,13 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
         <v>51</v>
-      </c>
-      <c r="D27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>52</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1439,13 +1484,13 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
         <v>53</v>
-      </c>
-      <c r="D28" t="b">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>54</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1459,7 +1504,7 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -1479,13 +1524,13 @@
         <v>9</v>
       </c>
       <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
         <v>56</v>
-      </c>
-      <c r="D30" t="b">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>57</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1499,7 +1544,7 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -1519,13 +1564,13 @@
         <v>9</v>
       </c>
       <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
         <v>59</v>
-      </c>
-      <c r="D32" t="b">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>60</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1539,13 +1584,13 @@
         <v>9</v>
       </c>
       <c r="C33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
         <v>61</v>
-      </c>
-      <c r="D33" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
-        <v>62</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1559,13 +1604,13 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
         <v>63</v>
-      </c>
-      <c r="D34" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>64</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1579,13 +1624,13 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
         <v>65</v>
-      </c>
-      <c r="D35" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>66</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1599,7 +1644,7 @@
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -1619,13 +1664,13 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
         <v>68</v>
-      </c>
-      <c r="D37" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>69</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1639,7 +1684,7 @@
         <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -1659,13 +1704,13 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
         <v>71</v>
-      </c>
-      <c r="D39" t="b">
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
-        <v>72</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
@@ -1679,13 +1724,13 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
         <v>73</v>
-      </c>
-      <c r="D40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>74</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1699,7 +1744,7 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -1719,13 +1764,13 @@
         <v>9</v>
       </c>
       <c r="C42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
         <v>76</v>
-      </c>
-      <c r="D42" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" t="s">
-        <v>77</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -1739,7 +1784,7 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
@@ -1759,13 +1804,13 @@
         <v>9</v>
       </c>
       <c r="C44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
         <v>79</v>
-      </c>
-      <c r="D44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E44" t="s">
-        <v>80</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -1779,7 +1824,7 @@
         <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -1799,7 +1844,7 @@
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
@@ -1819,13 +1864,13 @@
         <v>9</v>
       </c>
       <c r="C47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
         <v>83</v>
-      </c>
-      <c r="D47" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" t="s">
-        <v>84</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
@@ -1839,13 +1884,13 @@
         <v>9</v>
       </c>
       <c r="C48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
         <v>85</v>
-      </c>
-      <c r="D48" t="b">
-        <v>0</v>
-      </c>
-      <c r="E48" t="s">
-        <v>86</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -1859,13 +1904,13 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
         <v>87</v>
-      </c>
-      <c r="D49" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" t="s">
-        <v>88</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -1879,7 +1924,7 @@
         <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
@@ -1899,13 +1944,13 @@
         <v>9</v>
       </c>
       <c r="C51" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
         <v>90</v>
-      </c>
-      <c r="D51" t="b">
-        <v>0</v>
-      </c>
-      <c r="E51" t="s">
-        <v>91</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1919,7 +1964,7 @@
         <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
@@ -1939,7 +1984,7 @@
         <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
@@ -1959,13 +2004,13 @@
         <v>9</v>
       </c>
       <c r="C54" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
         <v>94</v>
-      </c>
-      <c r="D54" t="b">
-        <v>0</v>
-      </c>
-      <c r="E54" t="s">
-        <v>95</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -1979,13 +2024,13 @@
         <v>9</v>
       </c>
       <c r="C55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
         <v>96</v>
-      </c>
-      <c r="D55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E55" t="s">
-        <v>97</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -1999,13 +2044,13 @@
         <v>9</v>
       </c>
       <c r="C56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
         <v>98</v>
-      </c>
-      <c r="D56" t="b">
-        <v>0</v>
-      </c>
-      <c r="E56" t="s">
-        <v>99</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -2019,13 +2064,13 @@
         <v>9</v>
       </c>
       <c r="C57" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
         <v>100</v>
-      </c>
-      <c r="D57" t="b">
-        <v>1</v>
-      </c>
-      <c r="E57" t="s">
-        <v>101</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -2039,13 +2084,13 @@
         <v>9</v>
       </c>
       <c r="C58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
         <v>102</v>
-      </c>
-      <c r="D58" t="b">
-        <v>0</v>
-      </c>
-      <c r="E58" t="s">
-        <v>103</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
@@ -2059,7 +2104,7 @@
         <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
@@ -2079,7 +2124,7 @@
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -2099,13 +2144,13 @@
         <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -2119,13 +2164,13 @@
         <v>9</v>
       </c>
       <c r="C62" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
         <v>108</v>
-      </c>
-      <c r="D62" t="b">
-        <v>0</v>
-      </c>
-      <c r="E62" t="s">
-        <v>109</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
@@ -2139,7 +2184,7 @@
         <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
@@ -2159,13 +2204,13 @@
         <v>9</v>
       </c>
       <c r="C64" t="s">
+        <v>110</v>
+      </c>
+      <c r="D64" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
         <v>111</v>
-      </c>
-      <c r="D64" t="b">
-        <v>0</v>
-      </c>
-      <c r="E64" t="s">
-        <v>112</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
@@ -2179,13 +2224,13 @@
         <v>9</v>
       </c>
       <c r="C65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
         <v>113</v>
-      </c>
-      <c r="D65" t="b">
-        <v>0</v>
-      </c>
-      <c r="E65" t="s">
-        <v>114</v>
       </c>
       <c r="F65" t="s">
         <v>9</v>
@@ -2199,13 +2244,13 @@
         <v>9</v>
       </c>
       <c r="C66" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
         <v>115</v>
-      </c>
-      <c r="D66" t="b">
-        <v>0</v>
-      </c>
-      <c r="E66" t="s">
-        <v>116</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
@@ -2219,7 +2264,7 @@
         <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
@@ -2239,13 +2284,13 @@
         <v>9</v>
       </c>
       <c r="C68" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
         <v>118</v>
-      </c>
-      <c r="D68" t="b">
-        <v>1</v>
-      </c>
-      <c r="E68" t="s">
-        <v>119</v>
       </c>
       <c r="F68" t="s">
         <v>9</v>
@@ -2259,7 +2304,7 @@
         <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D69" t="b">
         <v>1</v>
@@ -2279,13 +2324,13 @@
         <v>9</v>
       </c>
       <c r="C70" t="s">
+        <v>120</v>
+      </c>
+      <c r="D70" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
         <v>121</v>
-      </c>
-      <c r="D70" t="b">
-        <v>0</v>
-      </c>
-      <c r="E70" t="s">
-        <v>122</v>
       </c>
       <c r="F70" t="s">
         <v>9</v>
@@ -2299,13 +2344,13 @@
         <v>9</v>
       </c>
       <c r="C71" t="s">
+        <v>122</v>
+      </c>
+      <c r="D71" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
         <v>123</v>
-      </c>
-      <c r="D71" t="b">
-        <v>0</v>
-      </c>
-      <c r="E71" t="s">
-        <v>124</v>
       </c>
       <c r="F71" t="s">
         <v>9</v>
@@ -2319,7 +2364,7 @@
         <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D72" t="b">
         <v>1</v>
@@ -2339,7 +2384,7 @@
         <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D73" t="b">
         <v>1</v>
@@ -2359,13 +2404,13 @@
         <v>9</v>
       </c>
       <c r="C74" t="s">
+        <v>126</v>
+      </c>
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
         <v>127</v>
-      </c>
-      <c r="D74" t="b">
-        <v>0</v>
-      </c>
-      <c r="E74" t="s">
-        <v>128</v>
       </c>
       <c r="F74" t="s">
         <v>9</v>
@@ -2379,7 +2424,7 @@
         <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D75" t="b">
         <v>1</v>
@@ -2399,7 +2444,7 @@
         <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D76" t="b">
         <v>1</v>
@@ -2419,7 +2464,7 @@
         <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
@@ -2439,7 +2484,7 @@
         <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D78" t="b">
         <v>1</v>
@@ -2459,7 +2504,7 @@
         <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D79" t="b">
         <v>1</v>
@@ -2479,13 +2524,13 @@
         <v>9</v>
       </c>
       <c r="C80" t="s">
+        <v>133</v>
+      </c>
+      <c r="D80" t="b">
+        <v>0</v>
+      </c>
+      <c r="E80" t="s">
         <v>134</v>
-      </c>
-      <c r="D80" t="b">
-        <v>0</v>
-      </c>
-      <c r="E80" t="s">
-        <v>135</v>
       </c>
       <c r="F80" t="s">
         <v>9</v>
@@ -2499,13 +2544,13 @@
         <v>9</v>
       </c>
       <c r="C81" t="s">
+        <v>135</v>
+      </c>
+      <c r="D81" t="b">
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
         <v>136</v>
-      </c>
-      <c r="D81" t="b">
-        <v>0</v>
-      </c>
-      <c r="E81" t="s">
-        <v>137</v>
       </c>
       <c r="F81" t="s">
         <v>9</v>
@@ -2519,7 +2564,7 @@
         <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D82" t="b">
         <v>1</v>
@@ -2539,7 +2584,7 @@
         <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D83" t="b">
         <v>1</v>
@@ -2559,7 +2604,7 @@
         <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D84" t="b">
         <v>1</v>
@@ -2579,7 +2624,7 @@
         <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D85" t="b">
         <v>1</v>
@@ -2599,13 +2644,13 @@
         <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F86" t="s">
         <v>9</v>
@@ -2619,13 +2664,13 @@
         <v>9</v>
       </c>
       <c r="C87" t="s">
+        <v>142</v>
+      </c>
+      <c r="D87" t="b">
+        <v>0</v>
+      </c>
+      <c r="E87" t="s">
         <v>143</v>
-      </c>
-      <c r="D87" t="b">
-        <v>0</v>
-      </c>
-      <c r="E87" t="s">
-        <v>144</v>
       </c>
       <c r="F87" t="s">
         <v>9</v>
@@ -2639,7 +2684,7 @@
         <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D88" t="b">
         <v>1</v>
@@ -2659,7 +2704,7 @@
         <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D89" t="b">
         <v>1</v>
@@ -2679,13 +2724,13 @@
         <v>9</v>
       </c>
       <c r="C90" t="s">
+        <v>146</v>
+      </c>
+      <c r="D90" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
         <v>147</v>
-      </c>
-      <c r="D90" t="b">
-        <v>0</v>
-      </c>
-      <c r="E90" t="s">
-        <v>148</v>
       </c>
       <c r="F90" t="s">
         <v>9</v>
@@ -2699,7 +2744,7 @@
         <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D91" t="b">
         <v>1</v>
@@ -2719,7 +2764,7 @@
         <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D92" t="b">
         <v>1</v>
@@ -2739,7 +2784,7 @@
         <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D93" t="b">
         <v>1</v>
@@ -2759,13 +2804,13 @@
         <v>9</v>
       </c>
       <c r="C94" t="s">
+        <v>151</v>
+      </c>
+      <c r="D94" t="b">
+        <v>0</v>
+      </c>
+      <c r="E94" t="s">
         <v>152</v>
-      </c>
-      <c r="D94" t="b">
-        <v>0</v>
-      </c>
-      <c r="E94" t="s">
-        <v>153</v>
       </c>
       <c r="F94" t="s">
         <v>9</v>
@@ -2779,13 +2824,13 @@
         <v>9</v>
       </c>
       <c r="C95" t="s">
+        <v>153</v>
+      </c>
+      <c r="D95" t="b">
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
         <v>154</v>
-      </c>
-      <c r="D95" t="b">
-        <v>0</v>
-      </c>
-      <c r="E95" t="s">
-        <v>155</v>
       </c>
       <c r="F95" t="s">
         <v>9</v>
@@ -2799,10 +2844,10 @@
         <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>156</v>
-      </c>
-      <c r="D96" t="s">
-        <v>9</v>
+        <v>155</v>
+      </c>
+      <c r="D96" t="b">
+        <v>1</v>
       </c>
       <c r="E96" t="s">
         <v>9</v>
@@ -2819,10 +2864,10 @@
         <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" t="s">
-        <v>9</v>
+        <v>156</v>
+      </c>
+      <c r="D97" t="b">
+        <v>1</v>
       </c>
       <c r="E97" t="s">
         <v>9</v>
@@ -2839,13 +2884,13 @@
         <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" t="s">
-        <v>9</v>
+        <v>157</v>
+      </c>
+      <c r="D98" t="b">
+        <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="F98" t="s">
         <v>9</v>
@@ -2859,13 +2904,13 @@
         <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" t="s">
-        <v>9</v>
+        <v>159</v>
+      </c>
+      <c r="D99" t="b">
+        <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>9</v>
+        <v>160</v>
       </c>
       <c r="F99" t="s">
         <v>9</v>
@@ -2879,10 +2924,10 @@
         <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" t="s">
-        <v>9</v>
+        <v>161</v>
+      </c>
+      <c r="D100" t="b">
+        <v>1</v>
       </c>
       <c r="E100" t="s">
         <v>9</v>
@@ -2899,10 +2944,10 @@
         <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" t="s">
-        <v>9</v>
+        <v>162</v>
+      </c>
+      <c r="D101" t="b">
+        <v>1</v>
       </c>
       <c r="E101" t="s">
         <v>9</v>
@@ -2919,13 +2964,13 @@
         <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" t="s">
-        <v>9</v>
+        <v>163</v>
+      </c>
+      <c r="D102" t="b">
+        <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="F102" t="s">
         <v>9</v>
@@ -2939,10 +2984,10 @@
         <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" t="s">
-        <v>9</v>
+        <v>165</v>
+      </c>
+      <c r="D103" t="b">
+        <v>1</v>
       </c>
       <c r="E103" t="s">
         <v>9</v>
@@ -2959,13 +3004,13 @@
         <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" t="s">
-        <v>9</v>
+        <v>166</v>
+      </c>
+      <c r="D104" t="b">
+        <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="F104" t="s">
         <v>9</v>
@@ -2979,10 +3024,10 @@
         <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" t="s">
-        <v>9</v>
+        <v>168</v>
+      </c>
+      <c r="D105" t="b">
+        <v>1</v>
       </c>
       <c r="E105" t="s">
         <v>9</v>
@@ -2999,13 +3044,13 @@
         <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" t="s">
-        <v>9</v>
+        <v>169</v>
+      </c>
+      <c r="D106" t="b">
+        <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
       <c r="F106" t="s">
         <v>9</v>

--- a/Physiologie/Excel/Secret.xlsx
+++ b/Physiologie/Excel/Secret.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Physiologie\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8E6274-5405-43C7-931A-AD1B42473627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EA1B00-5167-43C5-9296-CA5510B566D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
+    <workbookView xWindow="7200" yWindow="90" windowWidth="21600" windowHeight="11385" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="172">
   <si>
     <t>Numero</t>
   </si>
@@ -923,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4434D7D-6CBE-4AEC-87F6-B0BB4C058CB9}">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="118" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107:G153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3056,906 +3056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107" t="s">
-        <v>9</v>
-      </c>
-      <c r="F107" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" t="s">
-        <v>9</v>
-      </c>
-      <c r="E108" t="s">
-        <v>9</v>
-      </c>
-      <c r="F108" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" t="s">
-        <v>9</v>
-      </c>
-      <c r="E109" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110" t="s">
-        <v>9</v>
-      </c>
-      <c r="F110" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" t="s">
-        <v>9</v>
-      </c>
-      <c r="E111" t="s">
-        <v>9</v>
-      </c>
-      <c r="F111" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>111</v>
-      </c>
-      <c r="B112" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112" t="s">
-        <v>9</v>
-      </c>
-      <c r="F112" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" t="s">
-        <v>9</v>
-      </c>
-      <c r="E114" t="s">
-        <v>9</v>
-      </c>
-      <c r="F114" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" t="s">
-        <v>9</v>
-      </c>
-      <c r="E115" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>115</v>
-      </c>
-      <c r="B116" t="s">
-        <v>9</v>
-      </c>
-      <c r="C116" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" t="s">
-        <v>9</v>
-      </c>
-      <c r="E116" t="s">
-        <v>9</v>
-      </c>
-      <c r="F116" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>116</v>
-      </c>
-      <c r="B117" t="s">
-        <v>9</v>
-      </c>
-      <c r="C117" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" t="s">
-        <v>9</v>
-      </c>
-      <c r="E117" t="s">
-        <v>9</v>
-      </c>
-      <c r="F117" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>117</v>
-      </c>
-      <c r="B118" t="s">
-        <v>9</v>
-      </c>
-      <c r="C118" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" t="s">
-        <v>9</v>
-      </c>
-      <c r="E118" t="s">
-        <v>9</v>
-      </c>
-      <c r="F118" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>118</v>
-      </c>
-      <c r="B119" t="s">
-        <v>9</v>
-      </c>
-      <c r="C119" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" t="s">
-        <v>9</v>
-      </c>
-      <c r="E119" t="s">
-        <v>9</v>
-      </c>
-      <c r="F119" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
-        <v>9</v>
-      </c>
-      <c r="C120" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" t="s">
-        <v>9</v>
-      </c>
-      <c r="E120" t="s">
-        <v>9</v>
-      </c>
-      <c r="F120" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>120</v>
-      </c>
-      <c r="B121" t="s">
-        <v>9</v>
-      </c>
-      <c r="C121" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" t="s">
-        <v>9</v>
-      </c>
-      <c r="E121" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>121</v>
-      </c>
-      <c r="B122" t="s">
-        <v>9</v>
-      </c>
-      <c r="C122" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" t="s">
-        <v>9</v>
-      </c>
-      <c r="E122" t="s">
-        <v>9</v>
-      </c>
-      <c r="F122" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>122</v>
-      </c>
-      <c r="B123" t="s">
-        <v>9</v>
-      </c>
-      <c r="C123" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" t="s">
-        <v>9</v>
-      </c>
-      <c r="E123" t="s">
-        <v>9</v>
-      </c>
-      <c r="F123" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>123</v>
-      </c>
-      <c r="B124" t="s">
-        <v>9</v>
-      </c>
-      <c r="C124" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" t="s">
-        <v>9</v>
-      </c>
-      <c r="E124" t="s">
-        <v>9</v>
-      </c>
-      <c r="F124" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>124</v>
-      </c>
-      <c r="B125" t="s">
-        <v>9</v>
-      </c>
-      <c r="C125" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" t="s">
-        <v>9</v>
-      </c>
-      <c r="E125" t="s">
-        <v>9</v>
-      </c>
-      <c r="F125" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>125</v>
-      </c>
-      <c r="B126" t="s">
-        <v>9</v>
-      </c>
-      <c r="C126" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" t="s">
-        <v>9</v>
-      </c>
-      <c r="E126" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>126</v>
-      </c>
-      <c r="B127" t="s">
-        <v>9</v>
-      </c>
-      <c r="C127" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" t="s">
-        <v>9</v>
-      </c>
-      <c r="E127" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>127</v>
-      </c>
-      <c r="B128" t="s">
-        <v>9</v>
-      </c>
-      <c r="C128" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" t="s">
-        <v>9</v>
-      </c>
-      <c r="E128" t="s">
-        <v>9</v>
-      </c>
-      <c r="F128" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>128</v>
-      </c>
-      <c r="B129" t="s">
-        <v>9</v>
-      </c>
-      <c r="C129" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" t="s">
-        <v>9</v>
-      </c>
-      <c r="E129" t="s">
-        <v>9</v>
-      </c>
-      <c r="F129" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>129</v>
-      </c>
-      <c r="B130" t="s">
-        <v>9</v>
-      </c>
-      <c r="C130" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" t="s">
-        <v>9</v>
-      </c>
-      <c r="E130" t="s">
-        <v>9</v>
-      </c>
-      <c r="F130" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>130</v>
-      </c>
-      <c r="B131" t="s">
-        <v>9</v>
-      </c>
-      <c r="C131" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" t="s">
-        <v>9</v>
-      </c>
-      <c r="E131" t="s">
-        <v>9</v>
-      </c>
-      <c r="F131" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>131</v>
-      </c>
-      <c r="B132" t="s">
-        <v>9</v>
-      </c>
-      <c r="C132" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" t="s">
-        <v>9</v>
-      </c>
-      <c r="E132" t="s">
-        <v>9</v>
-      </c>
-      <c r="F132" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>132</v>
-      </c>
-      <c r="B133" t="s">
-        <v>9</v>
-      </c>
-      <c r="C133" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" t="s">
-        <v>9</v>
-      </c>
-      <c r="E133" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>133</v>
-      </c>
-      <c r="B134" t="s">
-        <v>9</v>
-      </c>
-      <c r="C134" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" t="s">
-        <v>9</v>
-      </c>
-      <c r="E134" t="s">
-        <v>9</v>
-      </c>
-      <c r="F134" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>134</v>
-      </c>
-      <c r="B135" t="s">
-        <v>9</v>
-      </c>
-      <c r="C135" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" t="s">
-        <v>9</v>
-      </c>
-      <c r="E135" t="s">
-        <v>9</v>
-      </c>
-      <c r="F135" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>135</v>
-      </c>
-      <c r="B136" t="s">
-        <v>9</v>
-      </c>
-      <c r="C136" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" t="s">
-        <v>9</v>
-      </c>
-      <c r="E136" t="s">
-        <v>9</v>
-      </c>
-      <c r="F136" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>136</v>
-      </c>
-      <c r="B137" t="s">
-        <v>9</v>
-      </c>
-      <c r="C137" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" t="s">
-        <v>9</v>
-      </c>
-      <c r="E137" t="s">
-        <v>9</v>
-      </c>
-      <c r="F137" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>137</v>
-      </c>
-      <c r="B138" t="s">
-        <v>9</v>
-      </c>
-      <c r="C138" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" t="s">
-        <v>9</v>
-      </c>
-      <c r="E138" t="s">
-        <v>9</v>
-      </c>
-      <c r="F138" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>138</v>
-      </c>
-      <c r="B139" t="s">
-        <v>9</v>
-      </c>
-      <c r="C139" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" t="s">
-        <v>9</v>
-      </c>
-      <c r="E139" t="s">
-        <v>9</v>
-      </c>
-      <c r="F139" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>139</v>
-      </c>
-      <c r="B140" t="s">
-        <v>9</v>
-      </c>
-      <c r="C140" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" t="s">
-        <v>9</v>
-      </c>
-      <c r="E140" t="s">
-        <v>9</v>
-      </c>
-      <c r="F140" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>140</v>
-      </c>
-      <c r="B141" t="s">
-        <v>9</v>
-      </c>
-      <c r="C141" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" t="s">
-        <v>9</v>
-      </c>
-      <c r="E141" t="s">
-        <v>9</v>
-      </c>
-      <c r="F141" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>141</v>
-      </c>
-      <c r="B142" t="s">
-        <v>9</v>
-      </c>
-      <c r="C142" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" t="s">
-        <v>9</v>
-      </c>
-      <c r="E142" t="s">
-        <v>9</v>
-      </c>
-      <c r="F142" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>142</v>
-      </c>
-      <c r="B143" t="s">
-        <v>9</v>
-      </c>
-      <c r="C143" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" t="s">
-        <v>9</v>
-      </c>
-      <c r="E143" t="s">
-        <v>9</v>
-      </c>
-      <c r="F143" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>143</v>
-      </c>
-      <c r="B144" t="s">
-        <v>9</v>
-      </c>
-      <c r="C144" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" t="s">
-        <v>9</v>
-      </c>
-      <c r="E144" t="s">
-        <v>9</v>
-      </c>
-      <c r="F144" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>144</v>
-      </c>
-      <c r="B145" t="s">
-        <v>9</v>
-      </c>
-      <c r="C145" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" t="s">
-        <v>9</v>
-      </c>
-      <c r="E145" t="s">
-        <v>9</v>
-      </c>
-      <c r="F145" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>145</v>
-      </c>
-      <c r="B146" t="s">
-        <v>9</v>
-      </c>
-      <c r="C146" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" t="s">
-        <v>9</v>
-      </c>
-      <c r="E146" t="s">
-        <v>9</v>
-      </c>
-      <c r="F146" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>146</v>
-      </c>
-      <c r="B147" t="s">
-        <v>9</v>
-      </c>
-      <c r="C147" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" t="s">
-        <v>9</v>
-      </c>
-      <c r="E147" t="s">
-        <v>9</v>
-      </c>
-      <c r="F147" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>147</v>
-      </c>
-      <c r="B148" t="s">
-        <v>9</v>
-      </c>
-      <c r="C148" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" t="s">
-        <v>9</v>
-      </c>
-      <c r="E148" t="s">
-        <v>9</v>
-      </c>
-      <c r="F148" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>148</v>
-      </c>
-      <c r="B149" t="s">
-        <v>9</v>
-      </c>
-      <c r="C149" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" t="s">
-        <v>9</v>
-      </c>
-      <c r="E149" t="s">
-        <v>9</v>
-      </c>
-      <c r="F149" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>149</v>
-      </c>
-      <c r="B150" t="s">
-        <v>9</v>
-      </c>
-      <c r="C150" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" t="s">
-        <v>9</v>
-      </c>
-      <c r="E150" t="s">
-        <v>9</v>
-      </c>
-      <c r="F150" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>150</v>
-      </c>
-      <c r="B151" t="s">
-        <v>9</v>
-      </c>
-      <c r="C151" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" t="s">
-        <v>9</v>
-      </c>
-      <c r="E151" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" t="s">
-        <v>9</v>
-      </c>
-    </row>
+    <row r="136" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
